--- a/doc/PC与PLC通信协议20170527.xlsx
+++ b/doc/PC与PLC通信协议20170527.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lje\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mywork\softproject\170215yidaRobot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="370">
   <si>
     <t>B区PC与PLC通信OPC变量</t>
   </si>
@@ -965,9 +965,6 @@
   </si>
   <si>
     <t>故障ERP</t>
-  </si>
-  <si>
-    <t>ERP:1=ERP通讯失败，2=ERP没有交地标签错误？</t>
   </si>
   <si>
     <t>MicroWin.S7-1200.NewItem166</t>
@@ -1156,6 +1153,27 @@
   <si>
     <t>报告ID复位</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP:1=ERP通讯失败，0=ERP通讯正常。PC自复位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:取缓存位异常;2:缓存没有空位.0:正常。PC自复位</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1607,7 +1625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1788,6 +1806,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,43 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2149,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
@@ -2163,13 +2184,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
@@ -2940,8 +2961,8 @@
       <c r="A48" s="18">
         <v>45</v>
       </c>
-      <c r="B48" s="68" t="s">
-        <v>354</v>
+      <c r="B48" s="64" t="s">
+        <v>353</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>99</v>
@@ -2955,40 +2976,40 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
-      <c r="B49" s="68" t="s">
-        <v>353</v>
+      <c r="B49" s="64" t="s">
+        <v>352</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="70" t="s">
-        <v>367</v>
+      <c r="E49" s="66" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
-      <c r="B50" s="68" t="s">
-        <v>355</v>
+      <c r="B50" s="64" t="s">
+        <v>354</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="70" t="s">
-        <v>368</v>
+      <c r="E50" s="66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <v>46</v>
       </c>
-      <c r="B51" s="72" t="s">
-        <v>356</v>
+      <c r="B51" s="68" t="s">
+        <v>355</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>7</v>
@@ -3002,32 +3023,32 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
-      <c r="B52" s="72" t="s">
-        <v>357</v>
+      <c r="B52" s="68" t="s">
+        <v>356</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="70" t="s">
-        <v>367</v>
+      <c r="E52" s="66" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
-      <c r="B53" s="72" t="s">
-        <v>358</v>
+      <c r="B53" s="68" t="s">
+        <v>357</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="70" t="s">
-        <v>368</v>
+      <c r="E53" s="66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -3084,31 +3105,31 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
       <c r="B57" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>365</v>
+        <v>342</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>364</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="66" t="s">
-        <v>345</v>
+      <c r="E57" s="62" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
-      <c r="B58" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>365</v>
+      <c r="B58" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>364</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="66" t="s">
-        <v>347</v>
+      <c r="E58" s="62" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -3164,32 +3185,32 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
-      <c r="B62" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>365</v>
+      <c r="B62" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>364</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="70" t="s">
-        <v>367</v>
+      <c r="E62" s="66" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
-      <c r="B63" s="68" t="s">
-        <v>349</v>
+      <c r="B63" s="64" t="s">
+        <v>348</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="70" t="s">
-        <v>368</v>
+      <c r="E63" s="66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -3211,32 +3232,32 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="42"/>
-      <c r="B65" s="68" t="s">
-        <v>350</v>
-      </c>
-      <c r="C65" s="74" t="s">
-        <v>365</v>
+      <c r="B65" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>364</v>
       </c>
       <c r="D65" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="70" t="s">
-        <v>367</v>
+      <c r="E65" s="66" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="42"/>
-      <c r="B66" s="68" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" s="74" t="s">
-        <v>366</v>
+      <c r="B66" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" s="70" t="s">
+        <v>365</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E66" s="70" t="s">
-        <v>368</v>
+      <c r="E66" s="66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -3445,8 +3466,8 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="47"/>
-      <c r="B79" s="73" t="s">
-        <v>359</v>
+      <c r="B79" s="69" t="s">
+        <v>358</v>
       </c>
       <c r="C79" s="49" t="s">
         <v>99</v>
@@ -3459,38 +3480,38 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="C80" s="76" t="s">
-        <v>366</v>
+      <c r="A80" s="67"/>
+      <c r="B80" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C80" s="72" t="s">
+        <v>365</v>
       </c>
       <c r="D80" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E80" s="70" t="s">
-        <v>367</v>
+      <c r="E80" s="66" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="71"/>
-      <c r="B81" s="73" t="s">
-        <v>361</v>
-      </c>
-      <c r="C81" s="76" t="s">
-        <v>366</v>
+      <c r="A81" s="67"/>
+      <c r="B81" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" s="72" t="s">
+        <v>365</v>
       </c>
       <c r="D81" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E81" s="70" t="s">
-        <v>368</v>
+      <c r="E81" s="66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B82" s="73" t="s">
-        <v>362</v>
+      <c r="B82" s="69" t="s">
+        <v>361</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>99</v>
@@ -3503,31 +3524,31 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B83" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="C83" s="75" t="s">
-        <v>366</v>
+      <c r="B83" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" s="71" t="s">
+        <v>365</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="E83" s="70" t="s">
-        <v>367</v>
+      <c r="E83" s="66" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B84" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="C84" s="75" t="s">
-        <v>366</v>
+      <c r="B84" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>365</v>
       </c>
       <c r="D84" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="E84" s="70" t="s">
-        <v>368</v>
+      <c r="E84" s="66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -3589,7 +3610,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="63" t="s">
+      <c r="A94" s="76" t="s">
         <v>158</v>
       </c>
       <c r="B94" s="55" t="s">
@@ -3603,7 +3624,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="63"/>
+      <c r="A95" s="76"/>
       <c r="B95" s="55" t="s">
         <v>161</v>
       </c>
@@ -3615,7 +3636,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="63"/>
+      <c r="A96" s="76"/>
       <c r="B96" s="55" t="s">
         <v>163</v>
       </c>
@@ -3704,11 +3725,11 @@
       </c>
     </row>
     <row r="107" spans="2:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="C107" s="64" t="s">
-        <v>344</v>
+      <c r="B107" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C107" s="60" t="s">
+        <v>343</v>
       </c>
       <c r="D107" s="59" t="s">
         <v>180</v>
@@ -3718,8 +3739,8 @@
       </c>
     </row>
     <row r="108" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="69" t="s">
-        <v>348</v>
+      <c r="B108" s="65" t="s">
+        <v>347</v>
       </c>
       <c r="C108" s="58" t="s">
         <v>179</v>
@@ -3729,8 +3750,8 @@
       </c>
     </row>
     <row r="109" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="69" t="s">
-        <v>350</v>
+      <c r="B109" s="65" t="s">
+        <v>349</v>
       </c>
       <c r="C109" s="58" t="s">
         <v>179</v>
@@ -3741,7 +3762,7 @@
     </row>
     <row r="110" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C110" s="58" t="s">
         <v>179</v>
@@ -3794,7 +3815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B115" s="59" t="s">
         <v>187</v>
       </c>
@@ -3805,9 +3826,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B116" s="67" t="s">
-        <v>346</v>
+    <row r="116" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B116" s="63" t="s">
+        <v>345</v>
       </c>
       <c r="C116" s="58" t="s">
         <v>179</v>
@@ -3816,7 +3837,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B117" s="59" t="s">
         <v>188</v>
       </c>
@@ -3827,7 +3848,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B118" s="59" t="s">
         <v>189</v>
       </c>
@@ -3838,7 +3859,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B119" s="59" t="s">
         <v>190</v>
       </c>
@@ -3849,7 +3870,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B120" s="59" t="s">
         <v>191</v>
       </c>
@@ -3925,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E156"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E59" sqref="B49:E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5717,78 +5738,81 @@
         <v>313</v>
       </c>
       <c r="E106" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B107" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
         <v>315</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>316</v>
+      <c r="E107" s="77" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B108" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
         <v>317</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B109" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
         <v>319</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B110" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
         <v>321</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B111" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
         <v>323</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B112" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
         <v>325</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C116" s="27" t="s">
         <v>118</v>
@@ -5799,7 +5823,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C117" s="27" t="s">
         <v>118</v>
@@ -5810,7 +5834,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C118" s="27" t="s">
         <v>118</v>
@@ -5975,16 +5999,16 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" t="s">
         <v>330</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>331</v>
-      </c>
-      <c r="E135" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
@@ -6110,7 +6134,7 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B147" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>31</v>
@@ -6121,7 +6145,7 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B148" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>31</v>
@@ -6132,7 +6156,7 @@
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B149" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>31</v>
@@ -6143,7 +6167,7 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B150" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>31</v>
@@ -6154,7 +6178,7 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B151" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>31</v>
@@ -6165,7 +6189,7 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B152" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>31</v>
@@ -6176,7 +6200,7 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B153" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>31</v>
@@ -6187,7 +6211,7 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B154" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>31</v>
@@ -6198,7 +6222,7 @@
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B155" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>31</v>
@@ -6209,7 +6233,7 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B156" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>31</v>
@@ -6221,6 +6245,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>